--- a/heatmap_data.xlsx
+++ b/heatmap_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D2F0D4-370E-7346-9A4B-92F77777BFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B38B1-69F2-DF47-B85D-B59E71A233DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="12380" windowWidth="19160" windowHeight="9060" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48200" yWindow="500" windowWidth="19000" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>State</t>
   </si>
@@ -386,6 +386,63 @@
   </si>
   <si>
     <t>Washington DC</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>$1.4MM spent on ~145 cabinets</t>
+  </si>
+  <si>
+    <t>Installed on 55 intersections</t>
+  </si>
+  <si>
+    <t>Installed on 100 intersections</t>
+  </si>
+  <si>
+    <t>Company headquarters</t>
+  </si>
+  <si>
+    <t>800+ ATC installations</t>
+  </si>
+  <si>
+    <t>Proposal accepted</t>
+  </si>
+  <si>
+    <t>40+ ATC installations</t>
+  </si>
+  <si>
+    <t>Installed in 28 intersections</t>
+  </si>
+  <si>
+    <t>From company website</t>
+  </si>
+  <si>
+    <t>11 cabinet installations</t>
+  </si>
+  <si>
+    <t>352 ATC installations across 30 intersections</t>
+  </si>
+  <si>
+    <t>From deployment map</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>New York City, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed in 13,000+ intersections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed in 3,000+ intersections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed in 700+ intersections </t>
   </si>
 </sst>
 </file>
@@ -2887,18 +2944,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -2908,8 +2966,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>33.424199999999999</v>
       </c>
@@ -2919,8 +2980,11 @@
       <c r="C2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30.093299999999999</v>
       </c>
@@ -2930,8 +2994,11 @@
       <c r="C3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34.053600000000003</v>
       </c>
@@ -2941,8 +3008,11 @@
       <c r="C4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30.506599999999999</v>
       </c>
@@ -2952,8 +3022,11 @@
       <c r="C5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>33.158000000000001</v>
       </c>
@@ -2963,8 +3036,11 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32.954500000000003</v>
       </c>
@@ -2974,8 +3050,11 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>42.6511</v>
       </c>
@@ -2985,8 +3064,11 @@
       <c r="C8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>42.886699999999998</v>
       </c>
@@ -2996,8 +3078,11 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34.139699999999998</v>
       </c>
@@ -3007,8 +3092,11 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>41.167000000000002</v>
       </c>
@@ -3018,8 +3106,11 @@
       <c r="C11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>37.779000000000003</v>
       </c>
@@ -3029,8 +3120,11 @@
       <c r="C12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>39.739199999999997</v>
       </c>
@@ -3040,8 +3134,11 @@
       <c r="C13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32.753100000000003</v>
       </c>
@@ -3051,8 +3148,11 @@
       <c r="C14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>32.814</v>
       </c>
@@ -3062,8 +3162,11 @@
       <c r="C15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>38.901200000000003</v>
       </c>
@@ -3073,8 +3176,11 @@
       <c r="C16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>33.4709</v>
       </c>
@@ -3084,8 +3190,11 @@
       <c r="C17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33.415100000000002</v>
       </c>
@@ -3095,8 +3204,11 @@
       <c r="C18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>33.143300000000004</v>
       </c>
@@ -3106,8 +3218,11 @@
       <c r="C19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>35.4495</v>
       </c>
@@ -3117,8 +3232,11 @@
       <c r="C20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>41.563800000000001</v>
       </c>
@@ -3128,8 +3246,11 @@
       <c r="C21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>42.360199999999999</v>
       </c>
@@ -3139,8 +3260,11 @@
       <c r="C22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>36.065199999999997</v>
       </c>
@@ -3150,8 +3274,11 @@
       <c r="C23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>37.334699999999998</v>
       </c>
@@ -3161,8 +3288,11 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>36.395499999999998</v>
       </c>
@@ -3172,8 +3302,11 @@
       <c r="C25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>36.188099999999999</v>
       </c>
@@ -3183,8 +3316,11 @@
       <c r="C26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>47.185299999999998</v>
       </c>
@@ -3194,8 +3330,11 @@
       <c r="C27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>34.932299999999998</v>
       </c>
@@ -3205,8 +3344,11 @@
       <c r="C28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>35.868145499999997</v>
       </c>
@@ -3216,8 +3358,11 @@
       <c r="C29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30.271128600000001</v>
       </c>
@@ -3227,8 +3372,11 @@
       <c r="C30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>33.1031744</v>
       </c>
@@ -3238,8 +3386,11 @@
       <c r="C31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>39.115661500000002</v>
       </c>
@@ -3249,8 +3400,11 @@
       <c r="C32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>42.728411700000002</v>
       </c>
@@ -3260,8 +3414,11 @@
       <c r="C33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>43.2128473</v>
       </c>
@@ -3271,8 +3428,11 @@
       <c r="C34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>43.038667099999998</v>
       </c>
@@ -3282,8 +3442,11 @@
       <c r="C35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>43.048122100000001</v>
       </c>
@@ -3293,8 +3456,11 @@
       <c r="C36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35.247287</v>
       </c>
@@ -3304,8 +3470,11 @@
       <c r="C37" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35.257850300000001</v>
       </c>
@@ -3315,8 +3484,11 @@
       <c r="C38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36.1867442</v>
       </c>
@@ -3326,8 +3498,11 @@
       <c r="C39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36.332019600000002</v>
       </c>
@@ -3337,8 +3512,11 @@
       <c r="C40" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36.062579499999998</v>
       </c>
@@ -3348,8 +3526,11 @@
       <c r="C41" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41.430297299999999</v>
       </c>
@@ -3359,8 +3540,11 @@
       <c r="C42" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40.336927000000003</v>
       </c>
@@ -3369,6 +3553,9 @@
       </c>
       <c r="C43" t="s">
         <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3378,18 +3565,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3399,8 +3587,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>37.338700000000003</v>
       </c>
@@ -3410,8 +3601,11 @@
       <c r="C2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>36.154000000000003</v>
       </c>
@@ -3420,6 +3614,23 @@
       </c>
       <c r="C3" t="s">
         <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>35.2271</v>
+      </c>
+      <c r="B4">
+        <v>-80.843100000000007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3429,15 +3640,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3658,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>34.605899999999998</v>
       </c>
@@ -3457,6 +3671,9 @@
       </c>
       <c r="C2" t="s">
         <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3466,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3477,7 +3694,7 @@
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3487,8 +3704,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>32.755499999999998</v>
       </c>
@@ -3498,8 +3718,11 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>37.235799999999998</v>
       </c>
@@ -3508,6 +3731,9 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3517,15 +3743,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3535,8 +3764,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>44.977800000000002</v>
       </c>
@@ -3545,6 +3777,51 @@
       </c>
       <c r="C2" t="s">
         <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="B3">
+        <v>-74.006</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>42.360100000000003</v>
+      </c>
+      <c r="B4">
+        <v>-71.058899999999994</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B5">
+        <v>-87.529799999999994</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3554,10 +3831,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3565,7 +3842,7 @@
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3575,8 +3852,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>29.735499999999998</v>
       </c>
@@ -3585,6 +3865,9 @@
       </c>
       <c r="C2" t="s">
         <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3594,15 +3877,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3895,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>41.878100000000003</v>
       </c>
@@ -3623,8 +3909,11 @@
       <c r="C2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>44.977800000000002</v>
       </c>
@@ -3634,8 +3923,11 @@
       <c r="C3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>38.907200000000003</v>
       </c>
@@ -3644,6 +3936,9 @@
       </c>
       <c r="C4" t="s">
         <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3653,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3664,7 +3959,7 @@
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3674,8 +3969,11 @@
       <c r="C1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>34.0961</v>
       </c>
@@ -3685,8 +3983,11 @@
       <c r="C2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>37.668799999999997</v>
       </c>
@@ -3695,6 +3996,9 @@
       </c>
       <c r="C3" t="s">
         <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/heatmap_data.xlsx
+++ b/heatmap_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B38B1-69F2-DF47-B85D-B59E71A233DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070FA2FD-0F97-4A42-866B-BA20EBBE7A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48200" yWindow="500" windowWidth="19000" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48200" yWindow="500" windowWidth="19000" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -594,6 +594,12 @@
       <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -938,10 +944,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2944,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3180,7 +3187,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>33.4709</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33.415100000000002</v>
       </c>
@@ -3208,7 +3215,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>33.143300000000004</v>
       </c>
@@ -3222,7 +3229,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>35.4495</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="40" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>41.563800000000001</v>
       </c>
@@ -3249,13 +3256,14 @@
       <c r="D21" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>42.360199999999999</v>
+        <v>36.065100000000001</v>
       </c>
       <c r="B22">
-        <v>-119.0167</v>
+        <v>-119.0164</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
@@ -3264,7 +3272,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>36.065199999999997</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>37.334699999999998</v>
       </c>
@@ -3292,7 +3300,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>36.395499999999998</v>
       </c>
@@ -3306,7 +3314,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>36.188099999999999</v>
       </c>
@@ -3320,7 +3328,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>47.185299999999998</v>
       </c>
@@ -3334,7 +3342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>34.932299999999998</v>
       </c>
@@ -3348,7 +3356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>35.868145499999997</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30.271128600000001</v>
       </c>
@@ -3376,7 +3384,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>33.1031744</v>
       </c>
@@ -3390,7 +3398,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>39.115661500000002</v>
       </c>
@@ -3745,7 +3753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/heatmap_data.xlsx
+++ b/heatmap_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070FA2FD-0F97-4A42-866B-BA20EBBE7A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02098618-BB69-F543-A3FB-7D34891B8613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48200" yWindow="500" windowWidth="19000" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34920" yWindow="500" windowWidth="32280" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Mobotrex" sheetId="9" r:id="rId8"/>
     <sheet name="Western Systems" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="250">
   <si>
     <t>State</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Phoenix, AZ</t>
   </si>
   <si>
-    <t>Apple Campus, Cupertino, CA</t>
-  </si>
-  <si>
     <t>Enid, OK</t>
   </si>
   <si>
@@ -394,39 +391,15 @@
     <t>Charlotte, NC</t>
   </si>
   <si>
-    <t>$1.4MM spent on ~145 cabinets</t>
-  </si>
-  <si>
-    <t>Installed on 55 intersections</t>
-  </si>
-  <si>
-    <t>Installed on 100 intersections</t>
-  </si>
-  <si>
     <t>Company headquarters</t>
   </si>
   <si>
-    <t>800+ ATC installations</t>
-  </si>
-  <si>
-    <t>Proposal accepted</t>
-  </si>
-  <si>
     <t>40+ ATC installations</t>
   </si>
   <si>
-    <t>Installed in 28 intersections</t>
-  </si>
-  <si>
     <t>From company website</t>
   </si>
   <si>
-    <t>11 cabinet installations</t>
-  </si>
-  <si>
-    <t>352 ATC installations across 30 intersections</t>
-  </si>
-  <si>
     <t>From deployment map</t>
   </si>
   <si>
@@ -443,13 +416,388 @@
   </si>
   <si>
     <t xml:space="preserve">Installed in 700+ intersections </t>
+  </si>
+  <si>
+    <t>Installed on 100 intersections - 06/28/23</t>
+  </si>
+  <si>
+    <t>Installed on 55 intersections - 06/28/23</t>
+  </si>
+  <si>
+    <t>$1.4MM spent on ~145 cabinets - 06/28/23</t>
+  </si>
+  <si>
+    <t>800+ ATC installations - 06/16/20</t>
+  </si>
+  <si>
+    <t>Proposal accepted - 06/01/20</t>
+  </si>
+  <si>
+    <t>McLean, VA</t>
+  </si>
+  <si>
+    <t>Indio, CA</t>
+  </si>
+  <si>
+    <t>Berthoud, CO</t>
+  </si>
+  <si>
+    <t>Brush, CO</t>
+  </si>
+  <si>
+    <t>Burlington, CO</t>
+  </si>
+  <si>
+    <t>Wray, CO</t>
+  </si>
+  <si>
+    <t>Chula Vista, CA</t>
+  </si>
+  <si>
+    <t>Broomall, PA</t>
+  </si>
+  <si>
+    <t>Dothan, AL</t>
+  </si>
+  <si>
+    <t>Sheldon, IA</t>
+  </si>
+  <si>
+    <t>Overland Park, KS</t>
+  </si>
+  <si>
+    <t>Olathe, KS</t>
+  </si>
+  <si>
+    <t>Durango, CO</t>
+  </si>
+  <si>
+    <t>Garland, TX</t>
+  </si>
+  <si>
+    <t>Carroll, IA</t>
+  </si>
+  <si>
+    <t>Storm Lake, IA</t>
+  </si>
+  <si>
+    <t>Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>Richmond, VA</t>
+  </si>
+  <si>
+    <t>Missouri Valley, IA</t>
+  </si>
+  <si>
+    <t>Scottsbluff, NE</t>
+  </si>
+  <si>
+    <t>Sac City, IA</t>
+  </si>
+  <si>
+    <t>Manson, IA</t>
+  </si>
+  <si>
+    <t>Moses Lake, WA</t>
+  </si>
+  <si>
+    <t>Leavenworth, WA</t>
+  </si>
+  <si>
+    <t>South Sioux City, NE</t>
+  </si>
+  <si>
+    <t>Independence, IA</t>
+  </si>
+  <si>
+    <t>Culver City, CA</t>
+  </si>
+  <si>
+    <t>Alliance, NE</t>
+  </si>
+  <si>
+    <t>Valley City, ND</t>
+  </si>
+  <si>
+    <t>Rock Rapids, IA</t>
+  </si>
+  <si>
+    <t>West Union, IA</t>
+  </si>
+  <si>
+    <t>Charles City, IA</t>
+  </si>
+  <si>
+    <t>Lubbock, TX</t>
+  </si>
+  <si>
+    <t>Grapevine, TX</t>
+  </si>
+  <si>
+    <t>Wylie, TX</t>
+  </si>
+  <si>
+    <t>Cherokee, IA</t>
+  </si>
+  <si>
+    <t>Ankeny, IA</t>
+  </si>
+  <si>
+    <t>Sioux Falls, SD</t>
+  </si>
+  <si>
+    <t>Ames, IA</t>
+  </si>
+  <si>
+    <t>Bondurant, IA</t>
+  </si>
+  <si>
+    <t>Keokuk, IA</t>
+  </si>
+  <si>
+    <t>Pigeon Forge, TN</t>
+  </si>
+  <si>
+    <t>Gatlinburg, TN</t>
+  </si>
+  <si>
+    <t>Lexington, TN</t>
+  </si>
+  <si>
+    <t>Gallatin, TN</t>
+  </si>
+  <si>
+    <t>Jackson, TN</t>
+  </si>
+  <si>
+    <t>Hanover, NH</t>
+  </si>
+  <si>
+    <t>Greeneville, TN</t>
+  </si>
+  <si>
+    <t>Jesup, GA</t>
+  </si>
+  <si>
+    <t>Rock Valley, IA</t>
+  </si>
+  <si>
+    <t>Forest City, IA</t>
+  </si>
+  <si>
+    <t>Olympia, WA</t>
+  </si>
+  <si>
+    <t>Greenwich, CT</t>
+  </si>
+  <si>
+    <t>Bristol, VA</t>
+  </si>
+  <si>
+    <t>Salem, VA</t>
+  </si>
+  <si>
+    <t>Lynchburg, VA</t>
+  </si>
+  <si>
+    <t>Staunton, VA</t>
+  </si>
+  <si>
+    <t>Culpeper, VA</t>
+  </si>
+  <si>
+    <t>Fredericksburg, VA</t>
+  </si>
+  <si>
+    <t>Suffolk, VA</t>
+  </si>
+  <si>
+    <t>Carrollton, VA</t>
+  </si>
+  <si>
+    <t>Christiansburg, VA</t>
+  </si>
+  <si>
+    <t>North Little Rock, AR</t>
+  </si>
+  <si>
+    <t>Lynwood, CA</t>
+  </si>
+  <si>
+    <t>Omaha, NE</t>
+  </si>
+  <si>
+    <t>Roseville, CA</t>
+  </si>
+  <si>
+    <t>San Mateo, CA</t>
+  </si>
+  <si>
+    <t>Orange City, IA</t>
+  </si>
+  <si>
+    <t>De Soto, IA</t>
+  </si>
+  <si>
+    <t>Owatonna, MN</t>
+  </si>
+  <si>
+    <t>Clive, IA</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>Tyler, TX</t>
+  </si>
+  <si>
+    <t>Prosper, TX</t>
+  </si>
+  <si>
+    <t>Highland Park, TX</t>
+  </si>
+  <si>
+    <t>Farmers Branch, TX</t>
+  </si>
+  <si>
+    <t>DeSoto, TX</t>
+  </si>
+  <si>
+    <t>Rowlett, TX</t>
+  </si>
+  <si>
+    <t>West Bath, ME</t>
+  </si>
+  <si>
+    <t>Rockport, ME</t>
+  </si>
+  <si>
+    <t>South Portland, ME</t>
+  </si>
+  <si>
+    <t>Houlton, ME</t>
+  </si>
+  <si>
+    <t>El Paso, TX</t>
+  </si>
+  <si>
+    <t>York, NE</t>
+  </si>
+  <si>
+    <t>Estherville, IA</t>
+  </si>
+  <si>
+    <t>Norwalk, IA</t>
+  </si>
+  <si>
+    <t>Grimes, IA</t>
+  </si>
+  <si>
+    <t>Oskaloosa, IA</t>
+  </si>
+  <si>
+    <t>Williston, ND</t>
+  </si>
+  <si>
+    <t>Council Bluffs, IA</t>
+  </si>
+  <si>
+    <t>Grinnell, IA</t>
+  </si>
+  <si>
+    <t>Waukee, IA</t>
+  </si>
+  <si>
+    <t>Muscatine, IA</t>
+  </si>
+  <si>
+    <t>Quincy, WA</t>
+  </si>
+  <si>
+    <t>Chelan, WA</t>
+  </si>
+  <si>
+    <t>Omak, WA</t>
+  </si>
+  <si>
+    <t>Boca Raton, FL</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Spencer, IA</t>
+  </si>
+  <si>
+    <t>Arnolds Park, IA</t>
+  </si>
+  <si>
+    <t>Okoboji, IA</t>
+  </si>
+  <si>
+    <t>Cheney, WA</t>
+  </si>
+  <si>
+    <t>Carson City, NV</t>
+  </si>
+  <si>
+    <t>Emmetsburg, IA</t>
+  </si>
+  <si>
+    <t>Spokane, WA</t>
+  </si>
+  <si>
+    <t>From deployment map - 2016</t>
+  </si>
+  <si>
+    <t>From deployment map - 2013</t>
+  </si>
+  <si>
+    <t>From deployment map - 2014</t>
+  </si>
+  <si>
+    <t>From deployment map - 2015</t>
+  </si>
+  <si>
+    <t>From deployment map - 2017</t>
+  </si>
+  <si>
+    <t>From deployment map - 2019</t>
+  </si>
+  <si>
+    <t>From deployment map - 2018</t>
+  </si>
+  <si>
+    <t>From deployment map - 2020</t>
+  </si>
+  <si>
+    <t>From deployment map - 2021</t>
+  </si>
+  <si>
+    <t>From deployment map - 2022</t>
+  </si>
+  <si>
+    <t>From deployment map - 2023</t>
+  </si>
+  <si>
+    <t>Installed in 28 intersections - 04/30/19</t>
+  </si>
+  <si>
+    <t>11 cabinet installations - 08/19/22</t>
+  </si>
+  <si>
+    <t>352 ATC installations across 30 intersections - 09/22/22</t>
+  </si>
+  <si>
+    <t>Cupertino, CA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +949,13 @@
       <color rgb="FFE8EAED"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -944,11 +1299,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2951,16 +3307,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="41.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2974,7 +3330,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2988,7 +3344,7 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3002,7 +3358,7 @@
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3016,7 +3372,7 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3030,7 +3386,7 @@
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3044,7 +3400,7 @@
         <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3058,7 +3414,7 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3072,7 +3428,7 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3086,7 +3442,7 @@
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3100,7 +3456,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3114,7 +3470,7 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3128,7 +3484,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3142,7 +3498,7 @@
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3156,7 +3512,7 @@
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3170,7 +3526,7 @@
         <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3184,7 +3540,7 @@
         <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3198,376 +3554,1890 @@
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>38.933900000000001</v>
+      </c>
+      <c r="B18">
+        <v>-77.177300000000002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>33.415100000000002</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>-111.8314</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="D19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>33.143300000000004</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>-117.1661</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="D20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>35.4495</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>-97.396699999999996</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="40" x14ac:dyDescent="0.4">
-      <c r="A21">
+      <c r="D21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="40" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>41.563800000000001</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>-93.759299999999996</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="D21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>36.065100000000001</v>
-      </c>
-      <c r="B22">
-        <v>-119.0164</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
       <c r="D22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="40" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>36.065199999999997</v>
+        <v>33.720599999999997</v>
       </c>
       <c r="B23">
-        <v>-112.0741</v>
+        <v>-116.21559999999999</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>37.334699999999998</v>
+        <v>36.065100000000001</v>
       </c>
       <c r="B24">
-        <v>-122.009</v>
+        <v>-119.0164</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>36.395499999999998</v>
+        <v>36.065199999999997</v>
       </c>
       <c r="B25">
-        <v>97.878299999999996</v>
+        <v>-112.0741</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>36.188099999999999</v>
+        <v>37.334699999999998</v>
       </c>
       <c r="B26">
-        <v>-94.540400000000005</v>
+        <v>-122.009</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>47.185299999999998</v>
+        <v>36.395499999999998</v>
       </c>
       <c r="B27">
-        <v>-122.2928</v>
+        <v>-97.878299999999996</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>34.932299999999998</v>
+        <v>36.188099999999999</v>
       </c>
       <c r="B28">
-        <v>-95.7697</v>
+        <v>-94.540400000000005</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>35.868145499999997</v>
+        <v>47.185299999999998</v>
       </c>
       <c r="B29">
-        <v>-83.561835000000002</v>
+        <v>-122.2928</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>30.271128600000001</v>
+        <v>34.932299999999998</v>
       </c>
       <c r="B30">
-        <v>-97.743699500000005</v>
+        <v>-95.7697</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>33.1031744</v>
+        <v>35.868145499999997</v>
       </c>
       <c r="B31">
-        <v>-96.670550300000002</v>
+        <v>-83.561835000000002</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>39.115661500000002</v>
+        <v>30.271128600000001</v>
       </c>
       <c r="B32">
-        <v>-77.563601500000004</v>
+        <v>-97.743699500000005</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>42.728411700000002</v>
+        <v>33.1031744</v>
       </c>
       <c r="B33">
-        <v>-73.691785100000004</v>
+        <v>-96.670550300000002</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>43.2128473</v>
+        <v>39.115661500000002</v>
       </c>
       <c r="B34">
-        <v>-75.455730399999993</v>
+        <v>-77.563601500000004</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>43.038667099999998</v>
+        <v>42.728411700000002</v>
       </c>
       <c r="B35">
-        <v>-78.864203500000002</v>
+        <v>-73.691785100000004</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>43.048122100000001</v>
+        <v>43.2128473</v>
       </c>
       <c r="B36">
-        <v>-76.147424400000006</v>
+        <v>-75.455730399999993</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35.247287</v>
+        <v>43.038667099999998</v>
       </c>
       <c r="B37">
-        <v>-97.599760099999997</v>
+        <v>-78.864203500000002</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>35.257850300000001</v>
+        <v>43.048122100000001</v>
       </c>
       <c r="B38">
-        <v>-96.936698899999996</v>
+        <v>-76.147424400000006</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>36.1867442</v>
+        <v>35.247287</v>
       </c>
       <c r="B39">
-        <v>-94.128814199999994</v>
+        <v>-97.599760099999997</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>36.332019600000002</v>
+        <v>35.257850300000001</v>
       </c>
       <c r="B40">
-        <v>-94.118536599999999</v>
+        <v>-96.936698899999996</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>36.062579499999998</v>
+        <v>36.1867442</v>
       </c>
       <c r="B41">
-        <v>-94.157426299999997</v>
+        <v>-94.128814199999994</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41.430297299999999</v>
+        <v>36.332019600000002</v>
       </c>
       <c r="B42">
-        <v>-97.359390399999995</v>
+        <v>-94.118536599999999</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>36.062579499999998</v>
+      </c>
+      <c r="B43">
+        <v>-94.157426299999997</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41.430297299999999</v>
+      </c>
+      <c r="B44">
+        <v>-97.359390399999995</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>40.336927000000003</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>-104.9121967</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>40.308300000000003</v>
+      </c>
+      <c r="B46">
+        <v>-105.08110000000001</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>40.258899999999997</v>
+      </c>
+      <c r="B47">
+        <v>-103.6238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>39.306100000000001</v>
+      </c>
+      <c r="B48">
+        <v>-102.2694</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>40.075882200000002</v>
+      </c>
+      <c r="B49">
+        <v>-102.223253</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>32.6400541</v>
+      </c>
+      <c r="B50">
+        <v>-117.08419550000001</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>43.110807600000001</v>
+      </c>
+      <c r="B51">
+        <v>-94.678189700000004</v>
+      </c>
+      <c r="C51" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>39.981500099999998</v>
+      </c>
+      <c r="B52">
+        <v>-75.356579699999998</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>31.2237285</v>
+      </c>
+      <c r="B53">
+        <v>-85.393437500000005</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>43.1801338</v>
+      </c>
+      <c r="B54">
+        <v>-95.852518500000002</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>38.9742502</v>
+      </c>
+      <c r="B55">
+        <v>-94.685170200000002</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>38.883885599999999</v>
+      </c>
+      <c r="B56">
+        <v>-94.818870000000004</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>37.239536700000002</v>
+      </c>
+      <c r="B57">
+        <v>-107.82158179169291</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>32.912624000000001</v>
+      </c>
+      <c r="B58">
+        <v>-96.638883300000003</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>42.019362800000003</v>
+      </c>
+      <c r="B59">
+        <v>-94.860335000000006</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>42.645281699999998</v>
+      </c>
+      <c r="B60">
+        <v>-95.1992726</v>
+      </c>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>39.981500099999998</v>
+      </c>
+      <c r="B61">
+        <v>-75.356579699999998</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>39.9527237</v>
+      </c>
+      <c r="B62">
+        <v>-75.163526200000007</v>
+      </c>
+      <c r="C62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>37.538508700000001</v>
+      </c>
+      <c r="B63">
+        <v>-77.434280000000001</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>41.556497499999999</v>
+      </c>
+      <c r="B64">
+        <v>-95.887943800000002</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>41.862302</v>
+      </c>
+      <c r="B65">
+        <v>-103.6627088</v>
+      </c>
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>42.422115499999997</v>
+      </c>
+      <c r="B66">
+        <v>-94.988584299999999</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>42.529143900000001</v>
+      </c>
+      <c r="B67">
+        <v>-94.534142099999997</v>
+      </c>
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>47.130141700000003</v>
+      </c>
+      <c r="B68">
+        <v>-119.278077</v>
+      </c>
+      <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>47.596913800000003</v>
+      </c>
+      <c r="B69">
+        <v>-120.661081</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>42.474296299999999</v>
+      </c>
+      <c r="B70">
+        <v>-96.413590900000003</v>
+      </c>
+      <c r="C70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>42.468566099999997</v>
+      </c>
+      <c r="B71">
+        <v>-91.889118699999997</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>34.021122400000003</v>
+      </c>
+      <c r="B72">
+        <v>-118.396466</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>42.097189700000001</v>
+      </c>
+      <c r="B73">
+        <v>-102.87071450000001</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>46.923313</v>
+      </c>
+      <c r="B74">
+        <v>-98.003155000000007</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>43.4303235</v>
+      </c>
+      <c r="B75">
+        <v>-96.167483099999998</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>42.962418399999997</v>
+      </c>
+      <c r="B76">
+        <v>-91.807664399999993</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>43.066217700000003</v>
+      </c>
+      <c r="B77">
+        <v>-92.679425800000004</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>33.585567699999999</v>
+      </c>
+      <c r="B78">
+        <v>-101.8470215</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>32.933738099999999</v>
+      </c>
+      <c r="B79">
+        <v>-97.078875400000001</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>33.015156099999999</v>
+      </c>
+      <c r="B80">
+        <v>-96.538803799999997</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>42.7247968</v>
+      </c>
+      <c r="B81">
+        <v>-95.624980300000004</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>41.732079599999999</v>
+      </c>
+      <c r="B82">
+        <v>-93.605091999999999</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>43.548825600000001</v>
+      </c>
+      <c r="B83">
+        <v>-96.7307737</v>
+      </c>
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>42.0267567</v>
+      </c>
+      <c r="B84">
+        <v>-93.617044800000002</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>41.700544100000002</v>
+      </c>
+      <c r="B85">
+        <v>-93.462157000000005</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>41.315479199999999</v>
+      </c>
+      <c r="B86">
+        <v>-92.186712799999995</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>35.7884241</v>
+      </c>
+      <c r="B87">
+        <v>-83.554332900000006</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>35.714258999999998</v>
+      </c>
+      <c r="B88">
+        <v>-83.510163800000001</v>
+      </c>
+      <c r="C88" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>35.650903</v>
+      </c>
+      <c r="B89">
+        <v>-88.393379600000003</v>
+      </c>
+      <c r="C89" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>36.388303100000002</v>
+      </c>
+      <c r="B90">
+        <v>-86.447589800000003</v>
+      </c>
+      <c r="C90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>35.614444599999999</v>
+      </c>
+      <c r="B91">
+        <v>-88.817741799999993</v>
+      </c>
+      <c r="C91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>43.703622000000003</v>
+      </c>
+      <c r="B92">
+        <v>-72.288666000000006</v>
+      </c>
+      <c r="C92" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>40.7127281</v>
+      </c>
+      <c r="B93">
+        <v>-74.006015199999993</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>37.336166300000002</v>
+      </c>
+      <c r="B94">
+        <v>-121.890591</v>
+      </c>
+      <c r="C94" t="s">
         <v>106</v>
       </c>
-      <c r="D43" t="s">
-        <v>128</v>
+      <c r="D94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>36.163157499999997</v>
+      </c>
+      <c r="B95">
+        <v>-82.830986100000004</v>
+      </c>
+      <c r="C95" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>31.607436499999999</v>
+      </c>
+      <c r="B96">
+        <v>-81.885392400000001</v>
+      </c>
+      <c r="C96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>43.205241000000001</v>
+      </c>
+      <c r="B97">
+        <v>-96.294843</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>43.262674699999998</v>
+      </c>
+      <c r="B98">
+        <v>-93.637674099999998</v>
+      </c>
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>47.045102200000002</v>
+      </c>
+      <c r="B99">
+        <v>-122.89500750000001</v>
+      </c>
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>41.026486200000001</v>
+      </c>
+      <c r="B100">
+        <v>-73.628459800000002</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>36.595968499999998</v>
+      </c>
+      <c r="B101">
+        <v>-82.188500899999994</v>
+      </c>
+      <c r="C101" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>37.293377999999997</v>
+      </c>
+      <c r="B102">
+        <v>-80.054666999999995</v>
+      </c>
+      <c r="C102" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>37.4137536</v>
+      </c>
+      <c r="B103">
+        <v>-79.142246400000005</v>
+      </c>
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>38.149594700000002</v>
+      </c>
+      <c r="B104">
+        <v>-79.072557000000003</v>
+      </c>
+      <c r="C104" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>38.4912207</v>
+      </c>
+      <c r="B105">
+        <v>-77.961821599999993</v>
+      </c>
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>38.303183699999998</v>
+      </c>
+      <c r="B106">
+        <v>-77.460539900000001</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>36.7282096</v>
+      </c>
+      <c r="B107">
+        <v>-76.583570300000005</v>
+      </c>
+      <c r="C107" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>36.952315300000002</v>
+      </c>
+      <c r="B108">
+        <v>-76.5317522</v>
+      </c>
+      <c r="C108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D108" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>37.129851700000003</v>
+      </c>
+      <c r="B109">
+        <v>-80.408938899999995</v>
+      </c>
+      <c r="C109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>34.769536000000002</v>
+      </c>
+      <c r="B110">
+        <v>-92.267094099999994</v>
+      </c>
+      <c r="C110" t="s">
+        <v>192</v>
+      </c>
+      <c r="D110" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>33.924830999999998</v>
+      </c>
+      <c r="B111">
+        <v>-118.20241540000001</v>
+      </c>
+      <c r="C111" t="s">
+        <v>193</v>
+      </c>
+      <c r="D111" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>41.258745900000001</v>
+      </c>
+      <c r="B112">
+        <v>-95.938375800000003</v>
+      </c>
+      <c r="C112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D112" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>38.752123500000003</v>
+      </c>
+      <c r="B113">
+        <v>-121.2880059</v>
+      </c>
+      <c r="C113" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>37.496904000000001</v>
+      </c>
+      <c r="B114">
+        <v>-122.33305729999999</v>
+      </c>
+      <c r="C114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>47.657193399999997</v>
+      </c>
+      <c r="B115">
+        <v>-117.42350999999999</v>
+      </c>
+      <c r="C115" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>43.007242400000003</v>
+      </c>
+      <c r="B116">
+        <v>-96.058313799999993</v>
+      </c>
+      <c r="C116" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>41.531859099999998</v>
+      </c>
+      <c r="B117">
+        <v>-94.008521400000006</v>
+      </c>
+      <c r="C117" t="s">
+        <v>198</v>
+      </c>
+      <c r="D117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>44.083993700000001</v>
+      </c>
+      <c r="B118">
+        <v>-93.226107600000006</v>
+      </c>
+      <c r="C118" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>41.6096559</v>
+      </c>
+      <c r="B119">
+        <v>-93.775464400000004</v>
+      </c>
+      <c r="C119" t="s">
+        <v>200</v>
+      </c>
+      <c r="D119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>32.776271899999998</v>
+      </c>
+      <c r="B120">
+        <v>-96.796855899999997</v>
+      </c>
+      <c r="C120" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>30.756393899999999</v>
+      </c>
+      <c r="B121">
+        <v>-94.398461299999994</v>
+      </c>
+      <c r="C121" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>33.238576299999998</v>
+      </c>
+      <c r="B122">
+        <v>-96.786605800000004</v>
+      </c>
+      <c r="C122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>32.833460700000003</v>
+      </c>
+      <c r="B123">
+        <v>-96.791945400000003</v>
+      </c>
+      <c r="C123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>32.926566800000003</v>
+      </c>
+      <c r="B124">
+        <v>-96.896091600000005</v>
+      </c>
+      <c r="C124" t="s">
+        <v>205</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>32.589783099999998</v>
+      </c>
+      <c r="B125">
+        <v>-96.857018299999993</v>
+      </c>
+      <c r="C125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>32.902901700000001</v>
+      </c>
+      <c r="B126">
+        <v>-96.563879999999997</v>
+      </c>
+      <c r="C126" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>43.909454199999999</v>
+      </c>
+      <c r="B127">
+        <v>-69.865493700000002</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>44.184523599999999</v>
+      </c>
+      <c r="B128">
+        <v>-69.076149099999995</v>
+      </c>
+      <c r="C128" t="s">
+        <v>209</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>43.641471600000003</v>
+      </c>
+      <c r="B129">
+        <v>-70.240881099999996</v>
+      </c>
+      <c r="C129" t="s">
+        <v>210</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>46.125128599999996</v>
+      </c>
+      <c r="B130">
+        <v>-67.840794399999993</v>
+      </c>
+      <c r="C130" t="s">
+        <v>211</v>
+      </c>
+      <c r="D130" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>31.755051099999999</v>
+      </c>
+      <c r="B131">
+        <v>-106.48823400000001</v>
+      </c>
+      <c r="C131" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>40.871617000000001</v>
+      </c>
+      <c r="B132">
+        <v>-97.600140100000004</v>
+      </c>
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>43.402663799999999</v>
+      </c>
+      <c r="B133">
+        <v>-94.836359900000005</v>
+      </c>
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>41.475549200000003</v>
+      </c>
+      <c r="B134">
+        <v>-93.678887599999996</v>
+      </c>
+      <c r="C134" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>41.6883214</v>
+      </c>
+      <c r="B135">
+        <v>-93.791057499999994</v>
+      </c>
+      <c r="C135" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>41.295103699999999</v>
+      </c>
+      <c r="B136">
+        <v>-92.644845099999998</v>
+      </c>
+      <c r="C136" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>48.146545699999997</v>
+      </c>
+      <c r="B137">
+        <v>-103.621814</v>
+      </c>
+      <c r="C137" t="s">
+        <v>218</v>
+      </c>
+      <c r="D137" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>41.258840999999997</v>
+      </c>
+      <c r="B138">
+        <v>-95.851948399999998</v>
+      </c>
+      <c r="C138" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>41.743023700000002</v>
+      </c>
+      <c r="B139">
+        <v>-92.723963699999999</v>
+      </c>
+      <c r="C139" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>41.611848500000001</v>
+      </c>
+      <c r="B140">
+        <v>-93.884512900000004</v>
+      </c>
+      <c r="C140" t="s">
+        <v>221</v>
+      </c>
+      <c r="D140" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>41.477612100000002</v>
+      </c>
+      <c r="B141">
+        <v>-91.121005299999993</v>
+      </c>
+      <c r="C141" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>47.234367300000002</v>
+      </c>
+      <c r="B142">
+        <v>-119.8535054</v>
+      </c>
+      <c r="C142" t="s">
+        <v>223</v>
+      </c>
+      <c r="D142" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>47.801219699999997</v>
+      </c>
+      <c r="B143">
+        <v>-120.62769040000001</v>
+      </c>
+      <c r="C143" t="s">
+        <v>224</v>
+      </c>
+      <c r="D143" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>48.4109853</v>
+      </c>
+      <c r="B144">
+        <v>-119.52755000000001</v>
+      </c>
+      <c r="C144" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>26.3586885</v>
+      </c>
+      <c r="B145">
+        <v>-80.083098399999997</v>
+      </c>
+      <c r="C145" t="s">
+        <v>226</v>
+      </c>
+      <c r="D145" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>29.758938199999999</v>
+      </c>
+      <c r="B146">
+        <v>-95.367697399999997</v>
+      </c>
+      <c r="C146" t="s">
+        <v>227</v>
+      </c>
+      <c r="D146" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>43.141551900000003</v>
+      </c>
+      <c r="B147">
+        <v>-95.147753600000001</v>
+      </c>
+      <c r="C147" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>43.370450599999998</v>
+      </c>
+      <c r="B148">
+        <v>-95.125888200000006</v>
+      </c>
+      <c r="C148" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>43.385880299999997</v>
+      </c>
+      <c r="B149">
+        <v>-95.148737499999996</v>
+      </c>
+      <c r="C149" t="s">
+        <v>230</v>
+      </c>
+      <c r="D149" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>47.4892246</v>
+      </c>
+      <c r="B150">
+        <v>-117.57930399999999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>231</v>
+      </c>
+      <c r="D150" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>39.169802199999999</v>
+      </c>
+      <c r="B151">
+        <v>-119.7575628</v>
+      </c>
+      <c r="C151" t="s">
+        <v>232</v>
+      </c>
+      <c r="D151" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3576,7 +5446,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3596,7 +5466,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3607,10 +5477,10 @@
         <v>-121.8853</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3621,10 +5491,10 @@
         <v>-95.992800000000003</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3635,10 +5505,10 @@
         <v>-80.843100000000007</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5537,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3678,10 +5548,10 @@
         <v>-86.9833</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3700,6 +5570,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3713,7 +5584,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3727,7 +5598,7 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -3738,10 +5609,10 @@
         <v>-121.9624</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3754,12 +5625,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3773,7 +5645,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3784,10 +5656,10 @@
         <v>-93.265000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3798,10 +5670,10 @@
         <v>-74.006</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3812,10 +5684,10 @@
         <v>-71.058899999999994</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3826,10 +5698,10 @@
         <v>-87.529799999999994</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +5733,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3872,10 +5744,10 @@
         <v>-94.977400000000003</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3888,10 +5760,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3904,7 +5779,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3915,10 +5790,10 @@
         <v>-87.629800000000003</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3929,10 +5804,10 @@
         <v>-93.265000000000001</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3943,10 +5818,10 @@
         <v>-77.036900000000003</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3978,7 +5853,7 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -3992,7 +5867,7 @@
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -4006,7 +5881,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/heatmap_data.xlsx
+++ b/heatmap_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02098618-BB69-F543-A3FB-7D34891B8613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671DA810-186B-9B43-AFA8-349C8AC6F4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="500" windowWidth="32280" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34920" yWindow="500" windowWidth="32280" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="Q-Free" sheetId="6" r:id="rId5"/>
     <sheet name="Oriux" sheetId="7" r:id="rId6"/>
     <sheet name="Cubic" sheetId="8" r:id="rId7"/>
-    <sheet name="Mobotrex" sheetId="9" r:id="rId8"/>
+    <sheet name="MoboTrex" sheetId="9" r:id="rId8"/>
     <sheet name="Western Systems" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -55,9 +55,6 @@
     <t>Cubic</t>
   </si>
   <si>
-    <t>Mobotrex</t>
-  </si>
-  <si>
     <t>Q-Free</t>
   </si>
   <si>
@@ -409,30 +406,9 @@
     <t>New York City, NY</t>
   </si>
   <si>
-    <t xml:space="preserve">Installed in 13,000+ intersections </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed in 3,000+ intersections </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installed in 700+ intersections </t>
-  </si>
-  <si>
-    <t>Installed on 100 intersections - 06/28/23</t>
-  </si>
-  <si>
-    <t>Installed on 55 intersections - 06/28/23</t>
-  </si>
-  <si>
-    <t>$1.4MM spent on ~145 cabinets - 06/28/23</t>
-  </si>
-  <si>
     <t>800+ ATC installations - 06/16/20</t>
   </si>
   <si>
-    <t>Proposal accepted - 06/01/20</t>
-  </si>
-  <si>
     <t>McLean, VA</t>
   </si>
   <si>
@@ -781,16 +757,40 @@
     <t>From deployment map - 2023</t>
   </si>
   <si>
-    <t>Installed in 28 intersections - 04/30/19</t>
-  </si>
-  <si>
-    <t>11 cabinet installations - 08/19/22</t>
-  </si>
-  <si>
     <t>352 ATC installations across 30 intersections - 09/22/22</t>
   </si>
   <si>
     <t>Cupertino, CA</t>
+  </si>
+  <si>
+    <t>MoboTrex</t>
+  </si>
+  <si>
+    <t>ATC installations in 100 intersections - 06/28/23</t>
+  </si>
+  <si>
+    <t>ATC installations on 55 intersections - 06/28/23</t>
+  </si>
+  <si>
+    <t>$1.4MM spent on ~145 cabinet installations - 06/28/23</t>
+  </si>
+  <si>
+    <t>Proposal accepted to begin ATC installation- 06/01/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC installations in 13,000+ intersections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC installations in 700+ intersections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC installations in 3,000+ intersections </t>
+  </si>
+  <si>
+    <t>ATC installations in 28 intersections - 04/30/19</t>
+  </si>
+  <si>
+    <t>11 ATC installations - 08/19/22</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1663,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,27 +1682,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3309,7 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+    <sheetView topLeftCell="B17" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3321,16 +3321,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3341,10 +3341,10 @@
         <v>-111.928</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3355,10 +3355,10 @@
         <v>-95.988600000000005</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3369,10 +3369,10 @@
         <v>-118.2427</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3383,10 +3383,10 @@
         <v>-97.830299999999994</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3397,10 +3397,10 @@
         <v>-117.3505</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3411,10 +3411,10 @@
         <v>-97.015000000000001</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3425,10 +3425,10 @@
         <v>-73.754900000000006</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3439,10 +3439,10 @@
         <v>-78.878299999999996</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3453,10 +3453,10 @@
         <v>-118.03530000000001</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3467,10 +3467,10 @@
         <v>-73.204800000000006</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3481,10 +3481,10 @@
         <v>-122.4199</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3495,10 +3495,10 @@
         <v>-104.98480000000001</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3509,10 +3509,10 @@
         <v>-97.332700000000003</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3523,10 +3523,10 @@
         <v>-96.948800000000006</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3537,10 +3537,10 @@
         <v>-77.265199999999993</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3551,10 +3551,10 @@
         <v>-81.974800000000002</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3565,10 +3565,10 @@
         <v>-77.177300000000002</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3579,10 +3579,10 @@
         <v>-111.8314</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3593,10 +3593,10 @@
         <v>-117.1661</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3607,10 +3607,10 @@
         <v>-97.396699999999996</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="40" x14ac:dyDescent="0.4">
@@ -3621,10 +3621,10 @@
         <v>-93.759299999999996</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -3636,10 +3636,10 @@
         <v>-116.21559999999999</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -3651,10 +3651,10 @@
         <v>-119.0164</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3665,10 +3665,10 @@
         <v>-112.0741</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3679,10 +3679,10 @@
         <v>-122.009</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3693,10 +3693,10 @@
         <v>-97.878299999999996</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3707,10 +3707,10 @@
         <v>-94.540400000000005</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3721,10 +3721,10 @@
         <v>-122.2928</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3735,10 +3735,10 @@
         <v>-95.7697</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3749,10 +3749,10 @@
         <v>-83.561835000000002</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3763,10 +3763,10 @@
         <v>-97.743699500000005</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3777,10 +3777,10 @@
         <v>-96.670550300000002</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3791,10 +3791,10 @@
         <v>-77.563601500000004</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3805,10 +3805,10 @@
         <v>-73.691785100000004</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3819,10 +3819,10 @@
         <v>-75.455730399999993</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3833,10 +3833,10 @@
         <v>-78.864203500000002</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3847,10 +3847,10 @@
         <v>-76.147424400000006</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3861,10 +3861,10 @@
         <v>-97.599760099999997</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3875,10 +3875,10 @@
         <v>-96.936698899999996</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3889,10 +3889,10 @@
         <v>-94.128814199999994</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3903,10 +3903,10 @@
         <v>-94.118536599999999</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3917,10 +3917,10 @@
         <v>-94.157426299999997</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3931,10 +3931,10 @@
         <v>-97.359390399999995</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3945,10 +3945,10 @@
         <v>-104.9121967</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3959,10 +3959,10 @@
         <v>-105.08110000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3973,10 +3973,10 @@
         <v>-103.6238</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3987,10 +3987,10 @@
         <v>-102.2694</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4001,10 +4001,10 @@
         <v>-102.223253</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4015,10 +4015,10 @@
         <v>-117.08419550000001</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4029,10 +4029,10 @@
         <v>-94.678189700000004</v>
       </c>
       <c r="C51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" t="s">
         <v>233</v>
-      </c>
-      <c r="D51" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4043,10 +4043,10 @@
         <v>-75.356579699999998</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4057,10 +4057,10 @@
         <v>-85.393437500000005</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4071,10 +4071,10 @@
         <v>-95.852518500000002</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4085,10 +4085,10 @@
         <v>-94.685170200000002</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4099,10 +4099,10 @@
         <v>-94.818870000000004</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4113,10 +4113,10 @@
         <v>-107.82158179169291</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4127,10 +4127,10 @@
         <v>-96.638883300000003</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4141,10 +4141,10 @@
         <v>-94.860335000000006</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4155,10 +4155,10 @@
         <v>-95.1992726</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4169,10 +4169,10 @@
         <v>-75.356579699999998</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4183,10 +4183,10 @@
         <v>-75.163526200000007</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4197,10 +4197,10 @@
         <v>-77.434280000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4211,10 +4211,10 @@
         <v>-95.887943800000002</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4225,10 +4225,10 @@
         <v>-103.6627088</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4239,10 +4239,10 @@
         <v>-94.988584299999999</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4253,10 +4253,10 @@
         <v>-94.534142099999997</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4267,10 +4267,10 @@
         <v>-119.278077</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4281,10 +4281,10 @@
         <v>-120.661081</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4295,10 +4295,10 @@
         <v>-96.413590900000003</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4309,10 +4309,10 @@
         <v>-91.889118699999997</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4323,10 +4323,10 @@
         <v>-118.396466</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4337,10 +4337,10 @@
         <v>-102.87071450000001</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4351,10 +4351,10 @@
         <v>-98.003155000000007</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4365,10 +4365,10 @@
         <v>-96.167483099999998</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4379,10 +4379,10 @@
         <v>-91.807664399999993</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4393,10 +4393,10 @@
         <v>-92.679425800000004</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4407,10 +4407,10 @@
         <v>-101.8470215</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4421,10 +4421,10 @@
         <v>-97.078875400000001</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4435,10 +4435,10 @@
         <v>-96.538803799999997</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4449,10 +4449,10 @@
         <v>-95.624980300000004</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4463,10 +4463,10 @@
         <v>-93.605091999999999</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4477,10 +4477,10 @@
         <v>-96.7307737</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4491,10 +4491,10 @@
         <v>-93.617044800000002</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4505,10 +4505,10 @@
         <v>-93.462157000000005</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4519,10 +4519,10 @@
         <v>-92.186712799999995</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4533,10 +4533,10 @@
         <v>-83.554332900000006</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D87" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4547,10 +4547,10 @@
         <v>-83.510163800000001</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4561,10 +4561,10 @@
         <v>-88.393379600000003</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4575,10 +4575,10 @@
         <v>-86.447589800000003</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4589,10 +4589,10 @@
         <v>-88.817741799999993</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4603,10 +4603,10 @@
         <v>-72.288666000000006</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4617,10 +4617,10 @@
         <v>-74.006015199999993</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4631,10 +4631,10 @@
         <v>-121.890591</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4645,10 +4645,10 @@
         <v>-82.830986100000004</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4659,10 +4659,10 @@
         <v>-81.885392400000001</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4673,10 +4673,10 @@
         <v>-96.294843</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4687,10 +4687,10 @@
         <v>-93.637674099999998</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4701,10 +4701,10 @@
         <v>-122.89500750000001</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D99" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4715,10 +4715,10 @@
         <v>-73.628459800000002</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4729,10 +4729,10 @@
         <v>-82.188500899999994</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4743,10 +4743,10 @@
         <v>-80.054666999999995</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D102" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4757,10 +4757,10 @@
         <v>-79.142246400000005</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4771,10 +4771,10 @@
         <v>-79.072557000000003</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D104" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4785,10 +4785,10 @@
         <v>-77.961821599999993</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D105" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4799,10 +4799,10 @@
         <v>-77.460539900000001</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D106" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4813,10 +4813,10 @@
         <v>-76.583570300000005</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4827,10 +4827,10 @@
         <v>-76.5317522</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D108" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4841,10 +4841,10 @@
         <v>-80.408938899999995</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4855,10 +4855,10 @@
         <v>-92.267094099999994</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D110" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4869,10 +4869,10 @@
         <v>-118.20241540000001</v>
       </c>
       <c r="C111" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D111" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4883,10 +4883,10 @@
         <v>-95.938375800000003</v>
       </c>
       <c r="C112" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D112" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4897,10 +4897,10 @@
         <v>-121.2880059</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D113" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4911,10 +4911,10 @@
         <v>-122.33305729999999</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4925,10 +4925,10 @@
         <v>-117.42350999999999</v>
       </c>
       <c r="C115" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4939,10 +4939,10 @@
         <v>-96.058313799999993</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4953,10 +4953,10 @@
         <v>-94.008521400000006</v>
       </c>
       <c r="C117" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4967,10 +4967,10 @@
         <v>-93.226107600000006</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D118" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4981,10 +4981,10 @@
         <v>-93.775464400000004</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4995,10 +4995,10 @@
         <v>-96.796855899999997</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D120" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5009,10 +5009,10 @@
         <v>-94.398461299999994</v>
       </c>
       <c r="C121" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5023,10 +5023,10 @@
         <v>-96.786605800000004</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D122" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5037,10 +5037,10 @@
         <v>-96.791945400000003</v>
       </c>
       <c r="C123" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D123" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5051,10 +5051,10 @@
         <v>-96.896091600000005</v>
       </c>
       <c r="C124" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5065,10 +5065,10 @@
         <v>-96.857018299999993</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5079,10 +5079,10 @@
         <v>-96.563879999999997</v>
       </c>
       <c r="C126" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5093,10 +5093,10 @@
         <v>-69.865493700000002</v>
       </c>
       <c r="C127" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D127" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5107,10 +5107,10 @@
         <v>-69.076149099999995</v>
       </c>
       <c r="C128" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5121,10 +5121,10 @@
         <v>-70.240881099999996</v>
       </c>
       <c r="C129" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5135,10 +5135,10 @@
         <v>-67.840794399999993</v>
       </c>
       <c r="C130" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D130" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5149,10 +5149,10 @@
         <v>-106.48823400000001</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5163,10 +5163,10 @@
         <v>-97.600140100000004</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5177,10 +5177,10 @@
         <v>-94.836359900000005</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5191,10 +5191,10 @@
         <v>-93.678887599999996</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5205,10 +5205,10 @@
         <v>-93.791057499999994</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5219,10 +5219,10 @@
         <v>-92.644845099999998</v>
       </c>
       <c r="C136" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5233,10 +5233,10 @@
         <v>-103.621814</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D137" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5247,10 +5247,10 @@
         <v>-95.851948399999998</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D138" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5261,10 +5261,10 @@
         <v>-92.723963699999999</v>
       </c>
       <c r="C139" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5275,10 +5275,10 @@
         <v>-93.884512900000004</v>
       </c>
       <c r="C140" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D140" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5289,10 +5289,10 @@
         <v>-91.121005299999993</v>
       </c>
       <c r="C141" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D141" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5303,10 +5303,10 @@
         <v>-119.8535054</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D142" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5317,10 +5317,10 @@
         <v>-120.62769040000001</v>
       </c>
       <c r="C143" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D143" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5331,10 +5331,10 @@
         <v>-119.52755000000001</v>
       </c>
       <c r="C144" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D144" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5345,10 +5345,10 @@
         <v>-80.083098399999997</v>
       </c>
       <c r="C145" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D145" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5359,10 +5359,10 @@
         <v>-95.367697399999997</v>
       </c>
       <c r="C146" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D146" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5373,10 +5373,10 @@
         <v>-95.147753600000001</v>
       </c>
       <c r="C147" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D147" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5387,10 +5387,10 @@
         <v>-95.125888200000006</v>
       </c>
       <c r="C148" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D148" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5401,10 +5401,10 @@
         <v>-95.148737499999996</v>
       </c>
       <c r="C149" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D149" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5415,10 +5415,10 @@
         <v>-117.57930399999999</v>
       </c>
       <c r="C150" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D150" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5429,10 +5429,10 @@
         <v>-119.7575628</v>
       </c>
       <c r="C151" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D151" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5452,21 +5452,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5477,10 +5477,10 @@
         <v>-121.8853</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5491,10 +5491,10 @@
         <v>-95.992800000000003</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5505,10 +5505,10 @@
         <v>-80.843100000000007</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5528,16 +5528,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5548,10 +5548,10 @@
         <v>-86.9833</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5570,21 +5570,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5595,10 +5595,10 @@
         <v>3308</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -5609,10 +5609,10 @@
         <v>-121.9624</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5625,7 +5625,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5636,16 +5636,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5656,10 +5656,10 @@
         <v>-93.265000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5670,10 +5670,10 @@
         <v>-74.006</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5684,10 +5684,10 @@
         <v>-71.058899999999994</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,10 +5698,10 @@
         <v>-87.529799999999994</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5714,7 +5714,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5724,16 +5724,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5744,10 +5744,10 @@
         <v>-94.977400000000003</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5770,16 +5770,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5790,10 +5790,10 @@
         <v>-87.629800000000003</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5804,10 +5804,10 @@
         <v>-93.265000000000001</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5818,10 +5818,10 @@
         <v>-77.036900000000003</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5833,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5844,16 +5844,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -5864,10 +5864,10 @@
         <v>-118.1058</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -5878,10 +5878,10 @@
         <v>-122.081</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
